--- a/dataset_summaries.xlsx
+++ b/dataset_summaries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_summaries" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="datasets_post_cleaning" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="thread_data" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="failed threads" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Author thresholds" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="122">
   <si>
     <t xml:space="preserve">rows</t>
   </si>
@@ -387,6 +388,9 @@
   </si>
   <si>
     <t xml:space="preserve">p_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% authors with 1 activity</t>
   </si>
 </sst>
 </file>
@@ -403,6 +407,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -424,17 +429,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,12 +453,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -479,7 +494,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -496,7 +511,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -517,6 +532,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,6 +553,14 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -559,7 +586,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.13"/>
@@ -567,13 +594,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,9 +842,9 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.51"/>
@@ -1098,7 +1125,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1117,7 +1144,7 @@
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -1339,7 +1366,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1358,11 +1385,11 @@
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="39.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,7 +2429,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2417,13 +2444,13 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,7 +2553,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
         <v>109</v>
       </c>
@@ -2790,28 +2817,28 @@
       <c r="A21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="10" t="n">
         <v>0.08477</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="10" t="n">
         <v>0.058087</v>
       </c>
-      <c r="D21" s="9" t="n">
+      <c r="D21" s="10" t="n">
         <v>-0.049397</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="10" t="n">
         <v>-0.072327</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="10" t="n">
         <v>0.077023</v>
       </c>
-      <c r="G21" s="9" t="n">
+      <c r="G21" s="10" t="n">
         <v>0.022992</v>
       </c>
-      <c r="H21" s="9" t="n">
+      <c r="H21" s="10" t="n">
         <v>0.102594</v>
       </c>
-      <c r="I21" s="9" t="n">
+      <c r="I21" s="10" t="n">
         <v>0.090682</v>
       </c>
       <c r="J21" s="2" t="n">
@@ -2825,28 +2852,28 @@
       <c r="A22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="9" t="n">
+      <c r="B22" s="10" t="n">
         <v>0.309465</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="10" t="n">
         <v>0.328576</v>
       </c>
-      <c r="D22" s="9" t="n">
+      <c r="D22" s="10" t="n">
         <v>0.318912</v>
       </c>
-      <c r="E22" s="9" t="n">
+      <c r="E22" s="10" t="n">
         <v>0.337043</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="10" t="n">
         <v>0.28568</v>
       </c>
-      <c r="G22" s="9" t="n">
+      <c r="G22" s="10" t="n">
         <v>0.310779</v>
       </c>
-      <c r="H22" s="9" t="n">
+      <c r="H22" s="10" t="n">
         <v>0.352886</v>
       </c>
-      <c r="I22" s="9" t="n">
+      <c r="I22" s="10" t="n">
         <v>0.342914</v>
       </c>
       <c r="J22" s="2" t="n">
@@ -3042,7 +3069,7 @@
       <c r="F29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="6" t="s">
         <v>13</v>
       </c>
@@ -3075,10 +3102,10 @@
       <c r="E31" s="2" t="n">
         <v>0.115784</v>
       </c>
-      <c r="F31" s="11" t="n">
+      <c r="F31" s="12" t="n">
         <v>0.08721867</v>
       </c>
-      <c r="J31" s="12"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
@@ -3096,47 +3123,47 @@
       <c r="E32" s="2" t="n">
         <v>0.095883</v>
       </c>
-      <c r="F32" s="11" t="n">
+      <c r="F32" s="12" t="n">
         <v>1.771323E-098</v>
       </c>
-      <c r="J32" s="12"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="C33" s="11"/>
-      <c r="J33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="C33" s="12"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="C34" s="11"/>
-      <c r="J34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="C35" s="11"/>
-      <c r="J35" s="13"/>
+      <c r="A35" s="14"/>
+      <c r="C35" s="12"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="C36" s="11"/>
-      <c r="J36" s="13"/>
+      <c r="A36" s="14"/>
+      <c r="C36" s="12"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="C37" s="11"/>
-      <c r="J37" s="13"/>
+      <c r="A37" s="14"/>
+      <c r="C37" s="12"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="C38" s="11"/>
-      <c r="J38" s="12"/>
+      <c r="A38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="12"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3154,10 +3181,77 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="16" t="n">
+        <v>43.314904528553</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="16" t="n">
+        <v>46.9018695878339</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16" t="n">
+        <v>42.3210269865068</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="16" t="n">
+        <v>68.0453694527034</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/dataset_summaries.xlsx
+++ b/dataset_summaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/619471197bf3fb32/Documents/PhD/reddit_analyses/reddit_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_07FC52925792045301768BB0216477B816ED0E36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B145E753-2FB6-4866-88BB-874137F78034}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="11_07FC52925792045301768BB0216477B816ED0E36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3537FB31-D230-4CEE-A2F1-F6B73E27B9DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset_summaries" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="141">
   <si>
     <t>rows</t>
   </si>
@@ -456,15 +456,21 @@
   </si>
   <si>
     <t>r/Cryptocurrency</t>
+  </si>
+  <si>
+    <t>r/politics</t>
+  </si>
+  <si>
+    <t>r/TheDonald</t>
+  </si>
+  <si>
+    <t>r/books</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -528,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,18 +571,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,10 +602,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,7 +924,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1492,14 +1497,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
@@ -1924,22 +1931,25 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="A15" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="20" t="s">
         <v>133</v>
       </c>
       <c r="K15" t="s">
@@ -1951,7 +1961,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3">
         <v>4776</v>
@@ -1959,10 +1969,10 @@
       <c r="C16" s="3">
         <v>100515</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="19">
         <v>44835.000497685185</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="19">
         <v>44864.999861111108</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1982,10 +1992,10 @@
       <c r="C17" s="3">
         <v>412563</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="19">
         <v>44835.000034722223</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="19">
         <v>44864.999976851854</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -2005,10 +2015,10 @@
       <c r="C18" s="3">
         <v>429579</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="19">
         <v>44835.0000462963</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="19">
         <v>44864.999884259261</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2020,7 +2030,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B19">
         <v>65343</v>
@@ -2028,10 +2038,10 @@
       <c r="C19">
         <v>6362987</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="19">
         <v>44104.958356481482</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="19">
         <v>44154.999976851854</v>
       </c>
       <c r="F19" t="s">
@@ -2039,6 +2049,169 @@
       </c>
       <c r="G19">
         <v>587126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="3">
+        <v>491</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1052</v>
+      </c>
+      <c r="D20" s="19">
+        <v>43586.052789351852</v>
+      </c>
+      <c r="E20" s="19">
+        <v>43645.998217592591</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4776</v>
+      </c>
+      <c r="C24" s="3">
+        <v>11395</v>
+      </c>
+      <c r="D24" s="3">
+        <v>14818</v>
+      </c>
+      <c r="E24">
+        <v>65343</v>
+      </c>
+      <c r="F24" s="3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="3">
+        <v>100515</v>
+      </c>
+      <c r="C25" s="3">
+        <v>412563</v>
+      </c>
+      <c r="D25" s="3">
+        <v>429579</v>
+      </c>
+      <c r="E25">
+        <v>6362987</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="19">
+        <v>44835.000497685185</v>
+      </c>
+      <c r="C26" s="19">
+        <v>44835.000034722223</v>
+      </c>
+      <c r="D26" s="19">
+        <v>44835.0000462963</v>
+      </c>
+      <c r="E26" s="19">
+        <v>44104.958356481482</v>
+      </c>
+      <c r="F26" s="19">
+        <v>43586.052789351852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="19">
+        <v>44864.999861111108</v>
+      </c>
+      <c r="C27" s="19">
+        <v>44864.999976851854</v>
+      </c>
+      <c r="D27" s="19">
+        <v>44864.999884259261</v>
+      </c>
+      <c r="E27" s="19">
+        <v>44154.999976851854</v>
+      </c>
+      <c r="F27" s="19">
+        <v>43645.998217592591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="3">
+        <v>50457</v>
+      </c>
+      <c r="C29" s="3">
+        <v>46445</v>
+      </c>
+      <c r="D29" s="3">
+        <v>34440</v>
+      </c>
+      <c r="E29">
+        <v>587126</v>
+      </c>
+      <c r="F29" s="3">
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -2055,94 +2228,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31305185-B551-40EC-AE2B-0AEEA936BA86}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="16">
         <v>105291</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>13169</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <v>423958</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>46573</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="16">
         <v>444397</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <v>36908</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="16">
         <v>6428330</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <v>2788540</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -2152,12 +2331,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4011,17 +4184,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
